--- a/Code/Results/Cases/Case_9_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9265187818436686</v>
+        <v>0.8812847129876218</v>
       </c>
       <c r="C2">
-        <v>0.08523072593334291</v>
+        <v>0.09204273966314247</v>
       </c>
       <c r="D2">
-        <v>0.01717853986570361</v>
+        <v>0.02680834816882793</v>
       </c>
       <c r="E2">
-        <v>0.03180215577628154</v>
+        <v>0.03112666784016938</v>
       </c>
       <c r="F2">
-        <v>1.807106992988409</v>
+        <v>1.466421878938661</v>
       </c>
       <c r="G2">
-        <v>1.576830001799365</v>
+        <v>1.23829154024591</v>
       </c>
       <c r="H2">
-        <v>0.04180195568857203</v>
+        <v>0.0334061848537679</v>
       </c>
       <c r="I2">
-        <v>0.05435431394652124</v>
+        <v>0.03971550090804676</v>
       </c>
       <c r="J2">
-        <v>1.043225887829479</v>
+        <v>0.832257688143784</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06750439838229028</v>
+        <v>0.3532553155344331</v>
       </c>
       <c r="M2">
-        <v>0.7647526347220435</v>
+        <v>0.3587080161578271</v>
       </c>
       <c r="N2">
-        <v>0.09746007591209604</v>
+        <v>0.05805421937677657</v>
       </c>
       <c r="O2">
-        <v>0.1810083824957545</v>
+        <v>0.8170054759714276</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1280631091382105</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1860676913457233</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8097853946779026</v>
+        <v>0.7698653051757844</v>
       </c>
       <c r="C3">
-        <v>0.07767339155911657</v>
+        <v>0.08034632589584589</v>
       </c>
       <c r="D3">
-        <v>0.01507472642998309</v>
+        <v>0.02334448285483859</v>
       </c>
       <c r="E3">
-        <v>0.02945396781024812</v>
+        <v>0.02914751145273442</v>
       </c>
       <c r="F3">
-        <v>1.723331941584263</v>
+        <v>1.417752834540124</v>
       </c>
       <c r="G3">
-        <v>1.499462567929598</v>
+        <v>1.202066961650445</v>
       </c>
       <c r="H3">
-        <v>0.04821531598406192</v>
+        <v>0.03858271071392916</v>
       </c>
       <c r="I3">
-        <v>0.06206323475143982</v>
+        <v>0.04539326863808313</v>
       </c>
       <c r="J3">
-        <v>1.010511303490773</v>
+        <v>0.8106684063953793</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06356557297841015</v>
+        <v>0.3517910741171875</v>
       </c>
       <c r="M3">
-        <v>0.6651044289303485</v>
+        <v>0.3484960816537708</v>
       </c>
       <c r="N3">
-        <v>0.08667237154894281</v>
+        <v>0.05543557311128389</v>
       </c>
       <c r="O3">
-        <v>0.158847037569064</v>
+        <v>0.7093846989846782</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1141981908296614</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1629925721118006</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.738109733488443</v>
+        <v>0.7012906042382951</v>
       </c>
       <c r="C4">
-        <v>0.0730915007669779</v>
+        <v>0.07332601356069546</v>
       </c>
       <c r="D4">
-        <v>0.01380676064413677</v>
+        <v>0.02125784598166547</v>
       </c>
       <c r="E4">
-        <v>0.02800202438072397</v>
+        <v>0.0279201391942232</v>
       </c>
       <c r="F4">
-        <v>1.671932219152851</v>
+        <v>1.38779044977808</v>
       </c>
       <c r="G4">
-        <v>1.45189603632987</v>
+        <v>1.179881320557868</v>
       </c>
       <c r="H4">
-        <v>0.05253108612001034</v>
+        <v>0.04207069614997949</v>
       </c>
       <c r="I4">
-        <v>0.06726502366574838</v>
+        <v>0.04924464774380644</v>
       </c>
       <c r="J4">
-        <v>0.9904534880186446</v>
+        <v>0.7971504717601334</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06109240956303275</v>
+        <v>0.3505729484292956</v>
       </c>
       <c r="M4">
-        <v>0.6041795850206171</v>
+        <v>0.3428830428090279</v>
       </c>
       <c r="N4">
-        <v>0.08011373131693489</v>
+        <v>0.0537769699855648</v>
       </c>
       <c r="O4">
-        <v>0.1452761416507258</v>
+        <v>0.6435226589480862</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1057817723589878</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1488522794808524</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7085738579110341</v>
+        <v>0.6730203337898786</v>
       </c>
       <c r="C5">
-        <v>0.07138135339369001</v>
+        <v>0.07071093564990605</v>
       </c>
       <c r="D5">
-        <v>0.01335218948205252</v>
+        <v>0.02047781015566486</v>
       </c>
       <c r="E5">
-        <v>0.02739186136145477</v>
+        <v>0.02740370062724651</v>
       </c>
       <c r="F5">
-        <v>1.648860103329284</v>
+        <v>1.373901798467671</v>
       </c>
       <c r="G5">
-        <v>1.430267878227923</v>
+        <v>1.169171170242521</v>
       </c>
       <c r="H5">
-        <v>0.05439692103300953</v>
+        <v>0.04357930905993213</v>
       </c>
       <c r="I5">
-        <v>0.06962141997695381</v>
+        <v>0.05103160519264449</v>
       </c>
       <c r="J5">
-        <v>0.9811469148727099</v>
+        <v>0.7906847683833576</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05999796481115638</v>
+        <v>0.3494458053677576</v>
       </c>
       <c r="M5">
-        <v>0.5797311878246489</v>
+        <v>0.3403486787134042</v>
       </c>
       <c r="N5">
-        <v>0.0775999023676448</v>
+        <v>0.05303820942717508</v>
       </c>
       <c r="O5">
-        <v>0.1397876582627973</v>
+        <v>0.6170215801830494</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1025148380803955</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1431260890181676</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7032759114986504</v>
+        <v>0.6679800282884685</v>
       </c>
       <c r="C6">
-        <v>0.07127693569588445</v>
+        <v>0.07053524907080799</v>
       </c>
       <c r="D6">
-        <v>0.01334636937598432</v>
+        <v>0.02042320951190035</v>
       </c>
       <c r="E6">
-        <v>0.02727132800626109</v>
+        <v>0.02730191228063195</v>
       </c>
       <c r="F6">
-        <v>1.642426467452609</v>
+        <v>1.369572862455371</v>
       </c>
       <c r="G6">
-        <v>1.423959468437346</v>
+        <v>1.165344496658449</v>
       </c>
       <c r="H6">
-        <v>0.05473033807357064</v>
+        <v>0.04384845032278184</v>
       </c>
       <c r="I6">
-        <v>0.07017575470416837</v>
+        <v>0.05149881745936558</v>
       </c>
       <c r="J6">
-        <v>0.978211799845468</v>
+        <v>0.7885190021666375</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05972718224795237</v>
+        <v>0.3485829795620532</v>
       </c>
       <c r="M6">
-        <v>0.576069752689591</v>
+        <v>0.3394345177664988</v>
       </c>
       <c r="N6">
-        <v>0.07735971415525</v>
+        <v>0.05285418879091353</v>
       </c>
       <c r="O6">
-        <v>0.1389185418721652</v>
+        <v>0.6129800341343383</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.102145257356959</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1422127201138323</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7366326371255241</v>
+        <v>0.7000982890796763</v>
       </c>
       <c r="C7">
-        <v>0.07355709645537445</v>
+        <v>0.07385207393546267</v>
       </c>
       <c r="D7">
-        <v>0.01399004791514713</v>
+        <v>0.02162021255916713</v>
       </c>
       <c r="E7">
-        <v>0.02794181605027291</v>
+        <v>0.02789004035851494</v>
       </c>
       <c r="F7">
-        <v>1.664514014668583</v>
+        <v>1.379044653824288</v>
       </c>
       <c r="G7">
-        <v>1.44418636017177</v>
+        <v>1.176581126808443</v>
       </c>
       <c r="H7">
-        <v>0.05260353117141969</v>
+        <v>0.04214728728481232</v>
       </c>
       <c r="I7">
-        <v>0.06770258169113319</v>
+        <v>0.04972181400892683</v>
       </c>
       <c r="J7">
-        <v>0.9865346090296754</v>
+        <v>0.7864993492413532</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06083667886576727</v>
+        <v>0.3479103582478871</v>
       </c>
       <c r="M7">
-        <v>0.6049292228330216</v>
+        <v>0.3407858757948894</v>
       </c>
       <c r="N7">
-        <v>0.08056209843638129</v>
+        <v>0.05355357239578851</v>
       </c>
       <c r="O7">
-        <v>0.1453162412712672</v>
+        <v>0.6439362040333947</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1062423557065273</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1489152109586236</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8848140613747262</v>
+        <v>0.8420633537663775</v>
       </c>
       <c r="C8">
-        <v>0.08326488205909044</v>
+        <v>0.08844643425669574</v>
       </c>
       <c r="D8">
-        <v>0.01670016976138911</v>
+        <v>0.02645223490682014</v>
       </c>
       <c r="E8">
-        <v>0.03092549948107859</v>
+        <v>0.03045781126476754</v>
       </c>
       <c r="F8">
-        <v>1.768823782720148</v>
+        <v>1.432428095467657</v>
       </c>
       <c r="G8">
-        <v>1.540360000173223</v>
+        <v>1.226638739122748</v>
       </c>
       <c r="H8">
-        <v>0.04398827475328293</v>
+        <v>0.03522276591451212</v>
       </c>
       <c r="I8">
-        <v>0.05739863435584702</v>
+        <v>0.04218087913398882</v>
       </c>
       <c r="J8">
-        <v>1.026939867340815</v>
+        <v>0.7961767969550664</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06583828793749547</v>
+        <v>0.3479495510987576</v>
       </c>
       <c r="M8">
-        <v>0.7317662737595754</v>
+        <v>0.3508093502072995</v>
       </c>
       <c r="N8">
-        <v>0.09436874610972978</v>
+        <v>0.05679079454666081</v>
       </c>
       <c r="O8">
-        <v>0.1735093399854719</v>
+        <v>0.7804531237842696</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1240074199489314</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1783668858804255</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.177678168080405</v>
+        <v>1.120622500723101</v>
       </c>
       <c r="C9">
-        <v>0.1020011382141348</v>
+        <v>0.1177085729533189</v>
       </c>
       <c r="D9">
-        <v>0.02187693795225698</v>
+        <v>0.03527566939865778</v>
       </c>
       <c r="E9">
-        <v>0.0368068134167423</v>
+        <v>0.03541317516018161</v>
       </c>
       <c r="F9">
-        <v>1.986678102507739</v>
+        <v>1.55746873799346</v>
       </c>
       <c r="G9">
-        <v>1.742009249064125</v>
+        <v>1.326547174516776</v>
       </c>
       <c r="H9">
-        <v>0.03015120393309112</v>
+        <v>0.02407722077477059</v>
       </c>
       <c r="I9">
-        <v>0.04044281065419053</v>
+        <v>0.02965675843198579</v>
       </c>
       <c r="J9">
-        <v>1.113279707632302</v>
+        <v>0.8453913986178065</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.07567155090195854</v>
+        <v>0.3515496381374916</v>
       </c>
       <c r="M9">
-        <v>0.981047174909861</v>
+        <v>0.3807620292667551</v>
       </c>
       <c r="N9">
-        <v>0.1211519180002583</v>
+        <v>0.06321930143896815</v>
       </c>
       <c r="O9">
-        <v>0.2289549631045489</v>
+        <v>1.049229579696259</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.1586985846680946</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2360840409977136</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.391659361085431</v>
+        <v>1.324903352615877</v>
       </c>
       <c r="C10">
-        <v>0.1175910021298847</v>
+        <v>0.1409525725463254</v>
       </c>
       <c r="D10">
-        <v>0.02579583005603325</v>
+        <v>0.04278669531885981</v>
       </c>
       <c r="E10">
-        <v>0.03972636597167778</v>
+        <v>0.03788999205587196</v>
       </c>
       <c r="F10">
-        <v>2.108507808276073</v>
+        <v>1.60483589479098</v>
       </c>
       <c r="G10">
-        <v>1.852661819763625</v>
+        <v>1.38987708269795</v>
       </c>
       <c r="H10">
-        <v>0.02264581172601332</v>
+        <v>0.01815254447646186</v>
       </c>
       <c r="I10">
-        <v>0.03094796504162556</v>
+        <v>0.02286509907074485</v>
       </c>
       <c r="J10">
-        <v>1.157994323334407</v>
+        <v>0.8262070584079595</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.08009611015870988</v>
+        <v>0.3425412173115134</v>
       </c>
       <c r="M10">
-        <v>1.170353176415148</v>
+        <v>0.394687229086081</v>
       </c>
       <c r="N10">
-        <v>0.136593140898654</v>
+        <v>0.06588430621219743</v>
       </c>
       <c r="O10">
-        <v>0.2671758697858948</v>
+        <v>1.25031216127573</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.1791599374531216</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2759672226663596</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.475807120527378</v>
+        <v>1.41475968693652</v>
       </c>
       <c r="C11">
-        <v>0.1365413041746848</v>
+        <v>0.1625435059502252</v>
       </c>
       <c r="D11">
-        <v>0.02680460869603962</v>
+        <v>0.04512398758777181</v>
       </c>
       <c r="E11">
-        <v>0.03101556174736864</v>
+        <v>0.0301166196702658</v>
       </c>
       <c r="F11">
-        <v>1.856372515673371</v>
+        <v>1.386427155397286</v>
       </c>
       <c r="G11">
-        <v>1.607731330876447</v>
+        <v>1.241275856657424</v>
       </c>
       <c r="H11">
-        <v>0.04076606913682923</v>
+        <v>0.03651228176029164</v>
       </c>
       <c r="I11">
-        <v>0.02932768500154648</v>
+        <v>0.02201354929266675</v>
       </c>
       <c r="J11">
-        <v>1.028913538936564</v>
+        <v>0.6654679984408602</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.0664512070651897</v>
+        <v>0.2868138330509176</v>
       </c>
       <c r="M11">
-        <v>1.289938485857931</v>
+        <v>0.341307766292239</v>
       </c>
       <c r="N11">
-        <v>0.1047108087202275</v>
+        <v>0.05906063348594615</v>
       </c>
       <c r="O11">
-        <v>0.2596524577358004</v>
+        <v>1.364908232950086</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1402622540112191</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2681736835147248</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.503027557995438</v>
+        <v>1.448535637664634</v>
       </c>
       <c r="C12">
-        <v>0.1505289067333422</v>
+        <v>0.1760671948410817</v>
       </c>
       <c r="D12">
-        <v>0.02647477233969653</v>
+        <v>0.04439273217716533</v>
       </c>
       <c r="E12">
-        <v>0.02563030813216916</v>
+        <v>0.02532858711823316</v>
       </c>
       <c r="F12">
-        <v>1.642829287728446</v>
+        <v>1.222927388631561</v>
       </c>
       <c r="G12">
-        <v>1.403915554461463</v>
+        <v>1.10882904822671</v>
       </c>
       <c r="H12">
-        <v>0.07986836816447607</v>
+        <v>0.07557157980495077</v>
       </c>
       <c r="I12">
-        <v>0.02905678341236939</v>
+        <v>0.02181213315107033</v>
       </c>
       <c r="J12">
-        <v>0.9234131418101299</v>
+        <v>0.5761491374399128</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.06251448633749668</v>
+        <v>0.2508865798522599</v>
       </c>
       <c r="M12">
-        <v>1.350479962131914</v>
+        <v>0.3016022204308726</v>
       </c>
       <c r="N12">
-        <v>0.07796138434297717</v>
+        <v>0.06056130039733176</v>
       </c>
       <c r="O12">
-        <v>0.2450746198299818</v>
+        <v>1.419233529310333</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1070002682665745</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2529148617277031</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.485976599090606</v>
+        <v>1.438909590883668</v>
       </c>
       <c r="C13">
-        <v>0.1621063425525904</v>
+        <v>0.1857006343860519</v>
       </c>
       <c r="D13">
-        <v>0.02539219346635235</v>
+        <v>0.04116036623713626</v>
       </c>
       <c r="E13">
-        <v>0.02239722124663435</v>
+        <v>0.02254613128237903</v>
       </c>
       <c r="F13">
-        <v>1.435780157038664</v>
+        <v>1.086072411393118</v>
       </c>
       <c r="G13">
-        <v>1.208527698798676</v>
+        <v>0.9688951143922822</v>
       </c>
       <c r="H13">
-        <v>0.1368746745462204</v>
+        <v>0.1322770446302997</v>
       </c>
       <c r="I13">
-        <v>0.03030681784843381</v>
+        <v>0.02263950105199797</v>
       </c>
       <c r="J13">
-        <v>0.8240367239935296</v>
+        <v>0.5309634314118128</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.06529638901274204</v>
+        <v>0.2247199850142962</v>
       </c>
       <c r="M13">
-        <v>1.370151624083576</v>
+        <v>0.268818605816346</v>
       </c>
       <c r="N13">
-        <v>0.05451304950695146</v>
+        <v>0.06780246711823779</v>
       </c>
       <c r="O13">
-        <v>0.2245190890481474</v>
+        <v>1.431921734298385</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.07714585837786103</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2312288416759642</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.453705762378718</v>
+        <v>1.412238208267922</v>
       </c>
       <c r="C14">
-        <v>0.1695519058871042</v>
+        <v>0.1910528037027746</v>
       </c>
       <c r="D14">
-        <v>0.02435054265456671</v>
+        <v>0.037923235025076</v>
       </c>
       <c r="E14">
-        <v>0.02144249353237671</v>
+        <v>0.02187618499549515</v>
       </c>
       <c r="F14">
-        <v>1.295083932240246</v>
+        <v>1.000651815584661</v>
       </c>
       <c r="G14">
-        <v>1.076838284571778</v>
+        <v>0.8700482562269656</v>
       </c>
       <c r="H14">
-        <v>0.1874638982760644</v>
+        <v>0.1825358720739843</v>
       </c>
       <c r="I14">
-        <v>0.03200829048181753</v>
+        <v>0.02382604335972971</v>
       </c>
       <c r="J14">
-        <v>0.757766971413929</v>
+        <v>0.513948452410304</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.07129738292805499</v>
+        <v>0.2099792818128137</v>
       </c>
       <c r="M14">
-        <v>1.365773652635255</v>
+        <v>0.2488726240298043</v>
       </c>
       <c r="N14">
-        <v>0.04038593780579092</v>
+        <v>0.07617244521967947</v>
       </c>
       <c r="O14">
-        <v>0.2076198199599197</v>
+        <v>1.422231170147626</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.05879651307956735</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2133558008064327</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.436016253629106</v>
+        <v>1.396116037906495</v>
       </c>
       <c r="C15">
-        <v>0.1709139658000112</v>
+        <v>0.1917618939507975</v>
       </c>
       <c r="D15">
-        <v>0.02401783429428406</v>
+        <v>0.03676298264424815</v>
       </c>
       <c r="E15">
-        <v>0.02134030576932044</v>
+        <v>0.02185591449001167</v>
       </c>
       <c r="F15">
-        <v>1.258735539491383</v>
+        <v>0.9815451112727374</v>
       </c>
       <c r="G15">
-        <v>1.04293867530707</v>
+        <v>0.8431638795476744</v>
       </c>
       <c r="H15">
-        <v>0.2005685839022817</v>
+        <v>0.1954874924426662</v>
       </c>
       <c r="I15">
-        <v>0.0329458139779506</v>
+        <v>0.02453844248600667</v>
       </c>
       <c r="J15">
-        <v>0.7411193396547873</v>
+        <v>0.5147655355337761</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.0731521412057603</v>
+        <v>0.2071596434909289</v>
       </c>
       <c r="M15">
-        <v>1.356226377423809</v>
+        <v>0.2445138202009325</v>
       </c>
       <c r="N15">
-        <v>0.03722403292749021</v>
+        <v>0.07843709818019207</v>
       </c>
       <c r="O15">
-        <v>0.202306870136244</v>
+        <v>1.41120173480482</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.05459454372524775</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2077168133675791</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.34668659804845</v>
+        <v>1.308190892342708</v>
       </c>
       <c r="C16">
-        <v>0.1617835082489165</v>
+        <v>0.181429492882188</v>
       </c>
       <c r="D16">
-        <v>0.02267440108146701</v>
+        <v>0.03288352634641001</v>
       </c>
       <c r="E16">
-        <v>0.02080783438810974</v>
+        <v>0.02145831244637808</v>
       </c>
       <c r="F16">
-        <v>1.24771993137648</v>
+        <v>1.003306143044959</v>
       </c>
       <c r="G16">
-        <v>1.034016446748822</v>
+        <v>0.8265195128283409</v>
       </c>
       <c r="H16">
-        <v>0.1909692243480663</v>
+        <v>0.1851616189591851</v>
       </c>
       <c r="I16">
-        <v>0.03686403798325699</v>
+        <v>0.02732649149198796</v>
       </c>
       <c r="J16">
-        <v>0.741134533491234</v>
+        <v>0.5644169304888891</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.07052283778563861</v>
+        <v>0.215746865856822</v>
       </c>
       <c r="M16">
-        <v>1.270137324338606</v>
+        <v>0.2503385708899266</v>
       </c>
       <c r="N16">
-        <v>0.03625006086851457</v>
+        <v>0.07499480920477097</v>
       </c>
       <c r="O16">
-        <v>0.1906788349830997</v>
+        <v>1.323678382152366</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.05298545097730667</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1953231599460317</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.295424507752642</v>
+        <v>1.255256528831097</v>
       </c>
       <c r="C17">
-        <v>0.1507443585586401</v>
+        <v>0.1703494889074477</v>
       </c>
       <c r="D17">
-        <v>0.02221021811468304</v>
+        <v>0.0318585283014059</v>
       </c>
       <c r="E17">
-        <v>0.02066639248385013</v>
+        <v>0.02121847887607298</v>
       </c>
       <c r="F17">
-        <v>1.311991169551064</v>
+        <v>1.063285557789833</v>
       </c>
       <c r="G17">
-        <v>1.09505374784608</v>
+        <v>0.8663401347481283</v>
       </c>
       <c r="H17">
-        <v>0.1549786537058964</v>
+        <v>0.1487923007053098</v>
       </c>
       <c r="I17">
-        <v>0.03903585532428</v>
+        <v>0.02891167785744475</v>
       </c>
       <c r="J17">
-        <v>0.7754298118759806</v>
+        <v>0.6107779358161309</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.06460240554669383</v>
+        <v>0.2305273350207919</v>
       </c>
       <c r="M17">
-        <v>1.206721042972731</v>
+        <v>0.2644950407044924</v>
       </c>
       <c r="N17">
-        <v>0.04254846228557696</v>
+        <v>0.06754849906115012</v>
       </c>
       <c r="O17">
-        <v>0.1906414089316399</v>
+        <v>1.261589896585917</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.06088555873186863</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1952508555446997</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.271695648495921</v>
+        <v>1.22675940510274</v>
       </c>
       <c r="C18">
-        <v>0.1370295091162461</v>
+        <v>0.1573714862809368</v>
       </c>
       <c r="D18">
-        <v>0.02226774611313687</v>
+        <v>0.03255934443440367</v>
       </c>
       <c r="E18">
-        <v>0.02208658182994938</v>
+        <v>0.02226756383546857</v>
       </c>
       <c r="F18">
-        <v>1.460557117896855</v>
+        <v>1.17665347589147</v>
       </c>
       <c r="G18">
-        <v>1.235859632539842</v>
+        <v>0.9630355048619066</v>
       </c>
       <c r="H18">
-        <v>0.1025365341601656</v>
+        <v>0.09629276302973722</v>
       </c>
       <c r="I18">
-        <v>0.0393490246906536</v>
+        <v>0.02904515560118259</v>
       </c>
       <c r="J18">
-        <v>0.8493518709766761</v>
+        <v>0.6725380744276066</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.0590623690424561</v>
+        <v>0.2560768225615888</v>
       </c>
       <c r="M18">
-        <v>1.154880131199377</v>
+        <v>0.2908827998692445</v>
       </c>
       <c r="N18">
-        <v>0.05773386668306557</v>
+        <v>0.05918834436686105</v>
       </c>
       <c r="O18">
-        <v>0.200584648322824</v>
+        <v>1.214097767749166</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.08007607870770528</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2057340504861358</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.269475552189789</v>
+        <v>1.217894066633875</v>
       </c>
       <c r="C19">
-        <v>0.1250603378083568</v>
+        <v>0.1463589905680607</v>
       </c>
       <c r="D19">
-        <v>0.0230789377681262</v>
+        <v>0.0348273372248542</v>
       </c>
       <c r="E19">
-        <v>0.02646563285064474</v>
+        <v>0.02601014622581754</v>
       </c>
       <c r="F19">
-        <v>1.668466245668995</v>
+        <v>1.326959660885663</v>
       </c>
       <c r="G19">
-        <v>1.433040636138472</v>
+        <v>1.097319407923834</v>
       </c>
       <c r="H19">
-        <v>0.05607127176770632</v>
+        <v>0.05008240411052611</v>
       </c>
       <c r="I19">
-        <v>0.03872066837388921</v>
+        <v>0.02869971599294718</v>
       </c>
       <c r="J19">
-        <v>0.9505994524313479</v>
+        <v>0.7456728510905464</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.06007200050924677</v>
+        <v>0.2892205598986166</v>
       </c>
       <c r="M19">
-        <v>1.118863399681629</v>
+        <v>0.3259677652905459</v>
       </c>
       <c r="N19">
-        <v>0.08287831135434232</v>
+        <v>0.05583004167574845</v>
       </c>
       <c r="O19">
-        <v>0.2183426589768054</v>
+        <v>1.184314902302219</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1114627381652085</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2244365524224641</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.331815059178524</v>
+        <v>1.267748531117917</v>
       </c>
       <c r="C20">
-        <v>0.1151330903285768</v>
+        <v>0.1377934357800967</v>
       </c>
       <c r="D20">
-        <v>0.02535884059864912</v>
+        <v>0.04080424044732212</v>
       </c>
       <c r="E20">
-        <v>0.03874165516406514</v>
+        <v>0.0369831773094802</v>
       </c>
       <c r="F20">
-        <v>2.053146109759581</v>
+        <v>1.585522134635823</v>
       </c>
       <c r="G20">
-        <v>1.799356652890509</v>
+        <v>1.346431257102793</v>
       </c>
       <c r="H20">
-        <v>0.02456505873149428</v>
+        <v>0.01962266584886319</v>
       </c>
       <c r="I20">
-        <v>0.03436689084607103</v>
+        <v>0.02568282606114192</v>
       </c>
       <c r="J20">
-        <v>1.133934898859962</v>
+        <v>0.8477573484986607</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.07811485818569963</v>
+        <v>0.3426576570809772</v>
       </c>
       <c r="M20">
-        <v>1.124012717902076</v>
+        <v>0.388453858429493</v>
       </c>
       <c r="N20">
-        <v>0.1338290753866005</v>
+        <v>0.06482287776023377</v>
       </c>
       <c r="O20">
-        <v>0.257350085366717</v>
+        <v>1.201363728678302</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.1748761954163882</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2655280341671968</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.499079199092193</v>
+        <v>1.427995507241718</v>
       </c>
       <c r="C21">
-        <v>0.1253580113054724</v>
+        <v>0.1507575360672888</v>
       </c>
       <c r="D21">
-        <v>0.02848764005416626</v>
+        <v>0.05071861258260668</v>
       </c>
       <c r="E21">
-        <v>0.04312672677486518</v>
+        <v>0.0412464559402892</v>
       </c>
       <c r="F21">
-        <v>2.206718615255525</v>
+        <v>1.608923808110802</v>
       </c>
       <c r="G21">
-        <v>1.942201727079521</v>
+        <v>1.484446338732397</v>
       </c>
       <c r="H21">
-        <v>0.01865160507445496</v>
+        <v>0.01504965397221714</v>
       </c>
       <c r="I21">
-        <v>0.02736730662903941</v>
+        <v>0.02084272884235006</v>
       </c>
       <c r="J21">
-        <v>1.197630930504488</v>
+        <v>0.7279701796139619</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.0854222015055548</v>
+        <v>0.332913450552077</v>
       </c>
       <c r="M21">
-        <v>1.264061398703461</v>
+        <v>0.3961571884983428</v>
       </c>
       <c r="N21">
-        <v>0.1531540894975052</v>
+        <v>0.06845342131953558</v>
       </c>
       <c r="O21">
-        <v>0.2912251846843859</v>
+        <v>1.347463110791153</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2006021549899089</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3016384516504331</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.609524504882728</v>
+        <v>1.534147823227244</v>
       </c>
       <c r="C22">
-        <v>0.1320671639191815</v>
+        <v>0.1588590496636044</v>
       </c>
       <c r="D22">
-        <v>0.03024734154062259</v>
+        <v>0.05726354949883472</v>
       </c>
       <c r="E22">
-        <v>0.04537472449335489</v>
+        <v>0.04352672732942509</v>
       </c>
       <c r="F22">
-        <v>2.298475657302717</v>
+        <v>1.613907021989675</v>
       </c>
       <c r="G22">
-        <v>2.027983437315669</v>
+        <v>1.57729904832587</v>
       </c>
       <c r="H22">
-        <v>0.01547553852310202</v>
+        <v>0.01260700648281313</v>
       </c>
       <c r="I22">
-        <v>0.0230255449459289</v>
+        <v>0.01766059784494267</v>
       </c>
       <c r="J22">
-        <v>1.235458584227331</v>
+        <v>0.6490598221659667</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.0892395761538296</v>
+        <v>0.3247607874091401</v>
       </c>
       <c r="M22">
-        <v>1.356563911096174</v>
+        <v>0.3991858459855422</v>
       </c>
       <c r="N22">
-        <v>0.1627301871917339</v>
+        <v>0.07016826938903975</v>
       </c>
       <c r="O22">
-        <v>0.3118424308789614</v>
+        <v>1.443060394016214</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2138913231346322</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3237056499950697</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.551905720755968</v>
+        <v>1.478309911697778</v>
       </c>
       <c r="C23">
-        <v>0.1278566246394135</v>
+        <v>0.1540090019900759</v>
       </c>
       <c r="D23">
-        <v>0.02907340414553516</v>
+        <v>0.05294833195132043</v>
       </c>
       <c r="E23">
-        <v>0.04423618608262281</v>
+        <v>0.04229443489120221</v>
       </c>
       <c r="F23">
-        <v>2.257761443078095</v>
+        <v>1.624823426631053</v>
       </c>
       <c r="G23">
-        <v>1.990841465543042</v>
+        <v>1.526691921163547</v>
       </c>
       <c r="H23">
-        <v>0.01710142439451512</v>
+        <v>0.0138409530748303</v>
       </c>
       <c r="I23">
-        <v>0.02488983690808322</v>
+        <v>0.01884825501869614</v>
       </c>
       <c r="J23">
-        <v>1.219640793016168</v>
+        <v>0.708012504091883</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.08748798410593039</v>
+        <v>0.3322876584845318</v>
       </c>
       <c r="M23">
-        <v>1.305853880321166</v>
+        <v>0.4013657530557992</v>
       </c>
       <c r="N23">
-        <v>0.1570207151508782</v>
+        <v>0.06953607713857046</v>
       </c>
       <c r="O23">
-        <v>0.3006962463060461</v>
+        <v>1.391423541710367</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2061003523781295</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3116968545960859</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.332167695421674</v>
+        <v>1.267179061862151</v>
       </c>
       <c r="C24">
-        <v>0.1131777491826753</v>
+        <v>0.1352026410115741</v>
       </c>
       <c r="D24">
-        <v>0.02505429921443181</v>
+        <v>0.04058386154667204</v>
       </c>
       <c r="E24">
-        <v>0.03984199750838435</v>
+        <v>0.03797024098468249</v>
       </c>
       <c r="F24">
-        <v>2.091426163140753</v>
+        <v>1.613782970032744</v>
       </c>
       <c r="G24">
-        <v>1.837251385694628</v>
+        <v>1.372575836867327</v>
       </c>
       <c r="H24">
-        <v>0.024191843288768</v>
+        <v>0.01929349557258675</v>
       </c>
       <c r="I24">
-        <v>0.03364991437737164</v>
+        <v>0.02490873678634919</v>
       </c>
       <c r="J24">
-        <v>1.15325909250322</v>
+        <v>0.8625684779029825</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.08036697846830521</v>
+        <v>0.34972272297248</v>
       </c>
       <c r="M24">
-        <v>1.11701740944747</v>
+        <v>0.3958371262853078</v>
       </c>
       <c r="N24">
-        <v>0.1365318985750719</v>
+        <v>0.0662304000943319</v>
       </c>
       <c r="O24">
-        <v>0.2588875635039791</v>
+        <v>1.195085243464462</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.1784048949214778</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2671841318265109</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.096345563177238</v>
+        <v>1.043411932296152</v>
       </c>
       <c r="C25">
-        <v>0.0977678311654131</v>
+        <v>0.111191576514301</v>
       </c>
       <c r="D25">
-        <v>0.02080145493594543</v>
+        <v>0.03298204604332255</v>
       </c>
       <c r="E25">
-        <v>0.03512553690472764</v>
+        <v>0.03397267775461721</v>
       </c>
       <c r="F25">
-        <v>1.914858653289073</v>
+        <v>1.518269073775997</v>
       </c>
       <c r="G25">
-        <v>1.674091794054249</v>
+        <v>1.286013742118513</v>
       </c>
       <c r="H25">
-        <v>0.03360236585417309</v>
+        <v>0.02683132781353259</v>
       </c>
       <c r="I25">
-        <v>0.0452345075258842</v>
+        <v>0.03337768309764222</v>
       </c>
       <c r="J25">
-        <v>1.083084403728321</v>
+        <v>0.8377477287495481</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.07261614250231574</v>
+        <v>0.3491054399036457</v>
       </c>
       <c r="M25">
-        <v>0.9152398311126717</v>
+        <v>0.3703810673350674</v>
       </c>
       <c r="N25">
-        <v>0.1147231506093576</v>
+        <v>0.06130322674660604</v>
       </c>
       <c r="O25">
-        <v>0.2141103488980711</v>
+        <v>0.9783274108472426</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.150037398530884</v>
       </c>
       <c r="Q25">
+        <v>0.2205576265276044</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
